--- a/Data/+Stocks_lists/ssga_holdings-daily-us-en-spy.xlsx
+++ b/Data/+Stocks_lists/ssga_holdings-daily-us-en-spy.xlsx
@@ -81,9 +81,6 @@
     <t>BERKSHIRE HATHAWAY INC CL B</t>
   </si>
   <si>
-    <t>BRK.B</t>
-  </si>
-  <si>
     <t>ELI LILLY + CO</t>
   </si>
   <si>
@@ -3052,6 +3049,9 @@
   </si>
   <si>
     <t>NWS</t>
+  </si>
+  <si>
+    <t>BRKB</t>
   </si>
 </sst>
 </file>
@@ -4927,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5057,7 +5057,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>1010</v>
       </c>
       <c r="C9" s="9">
         <v>1.7367630000000001</v>
@@ -5068,10 +5068,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C10" s="10">
         <v>1.3626469999999999</v>
@@ -5082,10 +5082,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="11">
         <v>1.3437760000000001</v>
@@ -5096,10 +5096,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C12" s="12">
         <v>1.317885</v>
@@ -5110,10 +5110,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C13" s="13">
         <v>1.136639</v>
@@ -5124,10 +5124,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C14" s="14">
         <v>1.11242</v>
@@ -5138,10 +5138,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C15" s="15">
         <v>1.0768450000000001</v>
@@ -5152,10 +5152,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C16" s="16">
         <v>1.026691</v>
@@ -5166,10 +5166,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C17" s="17">
         <v>0.90322599999999997</v>
@@ -5180,10 +5180,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C18" s="18">
         <v>0.89945399999999998</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C19" s="19">
         <v>0.83329299999999995</v>
@@ -5208,10 +5208,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C20" s="20">
         <v>0.78096600000000005</v>
@@ -5222,10 +5222,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C21" s="21">
         <v>0.77949400000000002</v>
@@ -5236,10 +5236,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C22" s="22">
         <v>0.75563400000000003</v>
@@ -5250,10 +5250,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C23" s="23">
         <v>0.69631500000000002</v>
@@ -5264,10 +5264,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C24" s="24">
         <v>0.67630900000000005</v>
@@ -5278,10 +5278,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C25" s="25">
         <v>0.62377000000000005</v>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C26" s="26">
         <v>0.61537500000000001</v>
@@ -5306,10 +5306,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C27" s="27">
         <v>0.60751500000000003</v>
@@ -5320,10 +5320,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C28" s="28">
         <v>0.58570699999999998</v>
@@ -5334,10 +5334,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C29" s="29">
         <v>0.57663699999999996</v>
@@ -5348,10 +5348,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C30" s="30">
         <v>0.57272199999999995</v>
@@ -5362,10 +5362,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C31" s="31">
         <v>0.56640000000000001</v>
@@ -5376,10 +5376,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C32" s="32">
         <v>0.52072300000000005</v>
@@ -5390,10 +5390,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C33" s="33">
         <v>0.508826</v>
@@ -5404,10 +5404,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C34" s="34">
         <v>0.50739999999999996</v>
@@ -5418,10 +5418,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C35" s="35">
         <v>0.50483299999999998</v>
@@ -5432,10 +5432,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C36" s="36">
         <v>0.48657099999999998</v>
@@ -5446,10 +5446,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C37" s="37">
         <v>0.47132000000000002</v>
@@ -5460,10 +5460,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C38" s="38">
         <v>0.46110299999999999</v>
@@ -5474,10 +5474,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C39" s="39">
         <v>0.45721400000000001</v>
@@ -5488,10 +5488,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C40" s="40">
         <v>0.43725999999999998</v>
@@ -5502,10 +5502,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C41" s="41">
         <v>0.43214999999999998</v>
@@ -5516,10 +5516,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C42" s="42">
         <v>0.42854700000000001</v>
@@ -5530,10 +5530,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C43" s="43">
         <v>0.41396100000000002</v>
@@ -5544,10 +5544,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C44" s="44">
         <v>0.41380299999999998</v>
@@ -5558,10 +5558,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C45" s="45">
         <v>0.40649000000000002</v>
@@ -5572,10 +5572,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C46" s="46">
         <v>0.38874399999999998</v>
@@ -5586,10 +5586,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C47" s="47">
         <v>0.38768999999999998</v>
@@ -5600,10 +5600,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C48" s="48">
         <v>0.38117899999999999</v>
@@ -5614,10 +5614,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C49" s="49">
         <v>0.37526199999999998</v>
@@ -5628,10 +5628,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C50" s="50">
         <v>0.36461900000000003</v>
@@ -5642,10 +5642,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C51" s="51">
         <v>0.36160799999999998</v>
@@ -5656,10 +5656,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C52" s="52">
         <v>0.35400599999999999</v>
@@ -5670,10 +5670,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C53" s="53">
         <v>0.35169699999999998</v>
@@ -5684,10 +5684,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="C54" s="54">
         <v>0.35020699999999999</v>
@@ -5698,10 +5698,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="C55" s="55">
         <v>0.35003299999999998</v>
@@ -5712,10 +5712,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="C56" s="56">
         <v>0.346416</v>
@@ -5726,10 +5726,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C57" s="57">
         <v>0.33993499999999999</v>
@@ -5740,10 +5740,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C58" s="58">
         <v>0.336283</v>
@@ -5754,10 +5754,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C59" s="59">
         <v>0.33626800000000001</v>
@@ -5768,10 +5768,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C60" s="60">
         <v>0.32361499999999999</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="C61" s="61">
         <v>0.32297599999999999</v>
@@ -5796,10 +5796,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="C62" s="62">
         <v>0.31984800000000002</v>
@@ -5810,10 +5810,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="C63" s="63">
         <v>0.31837599999999999</v>
@@ -5824,10 +5824,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C64" s="64">
         <v>0.31496299999999999</v>
@@ -5838,10 +5838,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C65" s="65">
         <v>0.312863</v>
@@ -5852,10 +5852,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C66" s="66">
         <v>0.30960799999999999</v>
@@ -5866,10 +5866,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C67" s="67">
         <v>0.30000700000000002</v>
@@ -5880,10 +5880,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C68" s="68">
         <v>0.298896</v>
@@ -5894,10 +5894,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C69" s="69">
         <v>0.29861399999999999</v>
@@ -5908,10 +5908,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C70" s="70">
         <v>0.29058400000000001</v>
@@ -5922,10 +5922,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C71" s="71">
         <v>0.28973700000000002</v>
@@ -5936,10 +5936,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="C72" s="72">
         <v>0.28822500000000001</v>
@@ -5950,10 +5950,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="C73" s="73">
         <v>0.27949400000000002</v>
@@ -5964,10 +5964,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="C74" s="74">
         <v>0.27882699999999999</v>
@@ -5978,10 +5978,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C75" s="75">
         <v>0.277422</v>
@@ -5992,10 +5992,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C76" s="76">
         <v>0.27356799999999998</v>
@@ -6006,10 +6006,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="C77" s="77">
         <v>0.26976600000000001</v>
@@ -6020,10 +6020,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C78" s="78">
         <v>0.26881500000000003</v>
@@ -6034,10 +6034,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C79" s="79">
         <v>0.26281300000000002</v>
@@ -6048,10 +6048,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="C80" s="80">
         <v>0.26006299999999999</v>
@@ -6062,10 +6062,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="C81" s="81">
         <v>0.25297900000000001</v>
@@ -6076,10 +6076,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C82" s="82">
         <v>0.25132199999999999</v>
@@ -6090,10 +6090,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C83" s="83">
         <v>0.24979100000000001</v>
@@ -6104,10 +6104,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="C84" s="84">
         <v>0.24859800000000001</v>
@@ -6118,10 +6118,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C85" s="85">
         <v>0.244588</v>
@@ -6132,10 +6132,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="C86" s="86">
         <v>0.242087</v>
@@ -6146,10 +6146,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C87" s="87">
         <v>0.241616</v>
@@ -6160,10 +6160,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="C88" s="88">
         <v>0.23887900000000001</v>
@@ -6174,10 +6174,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C89" s="89">
         <v>0.23582900000000001</v>
@@ -6188,10 +6188,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C90" s="90">
         <v>0.23517299999999999</v>
@@ -6202,10 +6202,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C91" s="91">
         <v>0.234624</v>
@@ -6216,10 +6216,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="C92" s="92">
         <v>0.234212</v>
@@ -6230,10 +6230,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="C93" s="93">
         <v>0.23252100000000001</v>
@@ -6244,10 +6244,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C94" s="94">
         <v>0.22568299999999999</v>
@@ -6258,10 +6258,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C95" s="95">
         <v>0.22514000000000001</v>
@@ -6272,10 +6272,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="C96" s="96">
         <v>0.22489799999999999</v>
@@ -6286,10 +6286,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C97" s="97">
         <v>0.22200400000000001</v>
@@ -6300,10 +6300,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C98" s="98">
         <v>0.21690799999999999</v>
@@ -6314,10 +6314,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="C99" s="99">
         <v>0.21563099999999999</v>
@@ -6328,10 +6328,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C100" s="100">
         <v>0.214809</v>
@@ -6342,10 +6342,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C101" s="101">
         <v>0.21444099999999999</v>
@@ -6356,10 +6356,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="C102" s="102">
         <v>0.20794299999999999</v>
@@ -6370,10 +6370,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C103" s="103">
         <v>0.20211100000000001</v>
@@ -6384,10 +6384,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C104" s="104">
         <v>0.20129900000000001</v>
@@ -6398,10 +6398,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="C105" s="105">
         <v>0.19989499999999999</v>
@@ -6412,10 +6412,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C106" s="106">
         <v>0.191749</v>
@@ -6426,10 +6426,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C107" s="107">
         <v>0.19126799999999999</v>
@@ -6440,10 +6440,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="C108" s="108">
         <v>0.19012299999999999</v>
@@ -6454,10 +6454,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="C109" s="109">
         <v>0.19003999999999999</v>
@@ -6468,10 +6468,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C110" s="110">
         <v>0.18600700000000001</v>
@@ -6482,10 +6482,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="C111" s="111">
         <v>0.183813</v>
@@ -6496,10 +6496,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="C112" s="112">
         <v>0.18154600000000001</v>
@@ -6510,10 +6510,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C113" s="113">
         <v>0.18046200000000001</v>
@@ -6524,10 +6524,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C114" s="114">
         <v>0.179949</v>
@@ -6538,10 +6538,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C115" s="115">
         <v>0.178926</v>
@@ -6552,10 +6552,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="C116" s="116">
         <v>0.177894</v>
@@ -6566,10 +6566,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C117" s="117">
         <v>0.17772299999999999</v>
@@ -6580,10 +6580,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C118" s="118">
         <v>0.17333499999999999</v>
@@ -6594,10 +6594,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="C119" s="119">
         <v>0.17319599999999999</v>
@@ -6608,10 +6608,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="C120" s="120">
         <v>0.169243</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C121" s="121">
         <v>0.167463</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="C122" s="122">
         <v>0.16738700000000001</v>
@@ -6650,10 +6650,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C123" s="123">
         <v>0.167098</v>
@@ -6664,10 +6664,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="C124" s="124">
         <v>0.16706299999999999</v>
@@ -6678,10 +6678,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="C125" s="125">
         <v>0.16642100000000001</v>
@@ -6692,10 +6692,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C126" s="126">
         <v>0.16600899999999999</v>
@@ -6706,10 +6706,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="C127" s="127">
         <v>0.16599</v>
@@ -6720,10 +6720,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="C128" s="128">
         <v>0.16391500000000001</v>
@@ -6734,10 +6734,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C129" s="129">
         <v>0.16311600000000001</v>
@@ -6748,10 +6748,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C130" s="130">
         <v>0.16309899999999999</v>
@@ -6762,10 +6762,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="C131" s="131">
         <v>0.16291900000000001</v>
@@ -6776,10 +6776,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C132" s="132">
         <v>0.161195</v>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="C133" s="133">
         <v>0.160162</v>
@@ -6804,10 +6804,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C134" s="134">
         <v>0.15950700000000001</v>
@@ -6818,10 +6818,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="C135" s="135">
         <v>0.158549</v>
@@ -6832,10 +6832,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C136" s="136">
         <v>0.15767</v>
@@ -6846,10 +6846,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="C137" s="137">
         <v>0.15688199999999999</v>
@@ -6860,10 +6860,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="C138" s="138">
         <v>0.151892</v>
@@ -6874,10 +6874,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="C139" s="139">
         <v>0.15142600000000001</v>
@@ -6888,10 +6888,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="C140" s="140">
         <v>0.15046799999999999</v>
@@ -6902,10 +6902,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="C141" s="141">
         <v>0.14732000000000001</v>
@@ -6916,10 +6916,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="C142" s="142">
         <v>0.147031</v>
@@ -6930,10 +6930,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="C143" s="143">
         <v>0.146786</v>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="C144" s="144">
         <v>0.146701</v>
@@ -6958,10 +6958,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="C145" s="145">
         <v>0.144764</v>
@@ -6972,10 +6972,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="C146" s="146">
         <v>0.14468300000000001</v>
@@ -6986,10 +6986,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C147" s="147">
         <v>0.14445</v>
@@ -7000,10 +7000,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="C148" s="148">
         <v>0.14157800000000001</v>
@@ -7014,10 +7014,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C149" s="149">
         <v>0.14071</v>
@@ -7028,10 +7028,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="C150" s="150">
         <v>0.13920099999999999</v>
@@ -7042,10 +7042,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="C151" s="151">
         <v>0.138901</v>
@@ -7056,10 +7056,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="C152" s="152">
         <v>0.13658600000000001</v>
@@ -7070,10 +7070,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="C153" s="153">
         <v>0.13571</v>
@@ -7084,10 +7084,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C154" s="154">
         <v>0.135462</v>
@@ -7098,10 +7098,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="C155" s="155">
         <v>0.13415199999999999</v>
@@ -7112,10 +7112,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C156" s="156">
         <v>0.13150500000000001</v>
@@ -7126,10 +7126,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="C157" s="157">
         <v>0.131081</v>
@@ -7140,10 +7140,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C158" s="158">
         <v>0.12839400000000001</v>
@@ -7154,10 +7154,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="C159" s="159">
         <v>0.12584899999999999</v>
@@ -7168,10 +7168,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="C160" s="160">
         <v>0.12571499999999999</v>
@@ -7182,10 +7182,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="C161" s="161">
         <v>0.12424499999999999</v>
@@ -7196,10 +7196,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="C162" s="162">
         <v>0.123529</v>
@@ -7210,10 +7210,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C163" s="163">
         <v>0.123277</v>
@@ -7224,10 +7224,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C164" s="164">
         <v>0.122738</v>
@@ -7238,10 +7238,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="C165" s="165">
         <v>0.121322</v>
@@ -7252,10 +7252,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="C166" s="166">
         <v>0.120963</v>
@@ -7266,10 +7266,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="C167" s="167">
         <v>0.120364</v>
@@ -7280,10 +7280,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="C168" s="168">
         <v>0.120064</v>
@@ -7294,10 +7294,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="C169" s="169">
         <v>0.119161</v>
@@ -7308,10 +7308,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="C170" s="170">
         <v>0.119115</v>
@@ -7322,10 +7322,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="C171" s="171">
         <v>0.118299</v>
@@ -7336,10 +7336,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="C172" s="172">
         <v>0.118107</v>
@@ -7350,10 +7350,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C173" s="173">
         <v>0.11762400000000001</v>
@@ -7364,10 +7364,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="C174" s="174">
         <v>0.11523</v>
@@ -7378,10 +7378,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="C175" s="175">
         <v>0.113385</v>
@@ -7392,10 +7392,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="C176" s="176">
         <v>0.113247</v>
@@ -7406,10 +7406,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="C177" s="177">
         <v>0.111931</v>
@@ -7420,10 +7420,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="C178" s="178">
         <v>0.11039300000000001</v>
@@ -7434,10 +7434,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="C179" s="179">
         <v>0.109782</v>
@@ -7448,10 +7448,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="C180" s="180">
         <v>0.10906</v>
@@ -7462,10 +7462,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="C181" s="181">
         <v>0.108695</v>
@@ -7476,10 +7476,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="C182" s="182">
         <v>0.107691</v>
@@ -7490,10 +7490,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C183" s="183">
         <v>0.10685799999999999</v>
@@ -7504,10 +7504,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="C184" s="184">
         <v>0.106393</v>
@@ -7518,10 +7518,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="C185" s="185">
         <v>0.105665</v>
@@ -7532,10 +7532,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="C186" s="186">
         <v>0.10549500000000001</v>
@@ -7546,10 +7546,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="C187" s="187">
         <v>0.105354</v>
@@ -7560,10 +7560,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="C188" s="188">
         <v>0.105265</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="C189" s="189">
         <v>0.10495500000000001</v>
@@ -7588,10 +7588,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="C190" s="190">
         <v>0.104125</v>
@@ -7602,10 +7602,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="C191" s="191">
         <v>0.10345500000000001</v>
@@ -7616,10 +7616,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C192" s="192">
         <v>0.102913</v>
@@ -7630,10 +7630,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="C193" s="193">
         <v>0.102434</v>
@@ -7644,10 +7644,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="C194" s="194">
         <v>0.102433</v>
@@ -7658,10 +7658,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="C195" s="195">
         <v>0.10194499999999999</v>
@@ -7672,10 +7672,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="C196" s="196">
         <v>0.10108300000000001</v>
@@ -7686,10 +7686,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="C197" s="197">
         <v>0.101075</v>
@@ -7700,10 +7700,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="C198" s="198">
         <v>0.100573</v>
@@ -7714,10 +7714,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="C199" s="199">
         <v>9.9710999999999994E-2</v>
@@ -7728,10 +7728,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="C200" s="200">
         <v>9.8695000000000005E-2</v>
@@ -7742,10 +7742,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="C201" s="201">
         <v>9.8532999999999996E-2</v>
@@ -7756,10 +7756,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="C202" s="202">
         <v>9.7996E-2</v>
@@ -7770,10 +7770,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="C203" s="203">
         <v>9.7724000000000005E-2</v>
@@ -7784,10 +7784,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="C204" s="204">
         <v>9.6768999999999994E-2</v>
@@ -7798,10 +7798,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="C205" s="205">
         <v>9.6609E-2</v>
@@ -7812,10 +7812,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="C206" s="206">
         <v>9.6424999999999997E-2</v>
@@ -7826,10 +7826,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="C207" s="207">
         <v>9.6215999999999996E-2</v>
@@ -7840,10 +7840,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="C208" s="208">
         <v>9.5922999999999994E-2</v>
@@ -7854,10 +7854,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="C209" s="209">
         <v>9.5630999999999994E-2</v>
@@ -7868,10 +7868,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="C210" s="210">
         <v>9.5316999999999999E-2</v>
@@ -7882,10 +7882,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="C211" s="211">
         <v>9.5138E-2</v>
@@ -7896,10 +7896,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="C212" s="212">
         <v>9.4624E-2</v>
@@ -7910,10 +7910,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="C213" s="213">
         <v>9.4277E-2</v>
@@ -7924,10 +7924,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="C214" s="214">
         <v>9.4077999999999995E-2</v>
@@ -7938,10 +7938,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="C215" s="215">
         <v>9.3714000000000006E-2</v>
@@ -7952,10 +7952,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="C216" s="216">
         <v>9.3684000000000003E-2</v>
@@ -7966,10 +7966,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="C217" s="217">
         <v>9.3509999999999996E-2</v>
@@ -7980,10 +7980,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C218" s="218">
         <v>9.3336000000000002E-2</v>
@@ -7994,10 +7994,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="C219" s="219">
         <v>9.3325000000000005E-2</v>
@@ -8008,10 +8008,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="C220" s="220">
         <v>9.2650999999999997E-2</v>
@@ -8022,10 +8022,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="C221" s="221">
         <v>9.2571000000000001E-2</v>
@@ -8036,10 +8036,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="C222" s="222">
         <v>9.2485999999999999E-2</v>
@@ -8050,10 +8050,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="C223" s="223">
         <v>9.1877E-2</v>
@@ -8064,10 +8064,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>450</v>
       </c>
       <c r="C224" s="224">
         <v>9.1592999999999994E-2</v>
@@ -8078,10 +8078,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="C225" s="225">
         <v>9.0879000000000001E-2</v>
@@ -8092,10 +8092,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="C226" s="226">
         <v>9.0387999999999996E-2</v>
@@ -8106,10 +8106,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>456</v>
       </c>
       <c r="C227" s="227">
         <v>9.0089000000000002E-2</v>
@@ -8120,10 +8120,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="C228" s="228">
         <v>8.974E-2</v>
@@ -8134,10 +8134,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="C229" s="229">
         <v>8.8457999999999995E-2</v>
@@ -8148,10 +8148,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="C230" s="230">
         <v>8.7885000000000005E-2</v>
@@ -8162,10 +8162,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="C231" s="231">
         <v>8.7523000000000004E-2</v>
@@ -8176,10 +8176,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="C232" s="232">
         <v>8.7478E-2</v>
@@ -8190,10 +8190,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="C233" s="233">
         <v>8.7087999999999999E-2</v>
@@ -8204,10 +8204,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="C234" s="234">
         <v>8.6863999999999997E-2</v>
@@ -8218,10 +8218,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>472</v>
       </c>
       <c r="C235" s="235">
         <v>8.6674000000000001E-2</v>
@@ -8232,10 +8232,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>474</v>
       </c>
       <c r="C236" s="236">
         <v>8.6216000000000001E-2</v>
@@ -8246,10 +8246,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="C237" s="237">
         <v>8.5925000000000001E-2</v>
@@ -8260,10 +8260,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>478</v>
       </c>
       <c r="C238" s="238">
         <v>8.5918999999999995E-2</v>
@@ -8274,10 +8274,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>480</v>
       </c>
       <c r="C239" s="239">
         <v>8.5723999999999995E-2</v>
@@ -8288,10 +8288,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="C240" s="240">
         <v>8.3145999999999998E-2</v>
@@ -8302,10 +8302,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="C241" s="241">
         <v>8.2970000000000002E-2</v>
@@ -8316,10 +8316,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>485</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>486</v>
       </c>
       <c r="C242" s="242">
         <v>8.2945000000000005E-2</v>
@@ -8330,10 +8330,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="C243" s="243">
         <v>8.201E-2</v>
@@ -8344,10 +8344,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="C244" s="244">
         <v>8.1694000000000003E-2</v>
@@ -8358,10 +8358,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="C245" s="245">
         <v>8.1389000000000003E-2</v>
@@ -8372,10 +8372,10 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="C246" s="246">
         <v>8.1075999999999995E-2</v>
@@ -8386,10 +8386,10 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="C247" s="247">
         <v>7.9994999999999997E-2</v>
@@ -8400,10 +8400,10 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="C248" s="248">
         <v>7.9617999999999994E-2</v>
@@ -8414,10 +8414,10 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="C249" s="249">
         <v>7.9537999999999998E-2</v>
@@ -8428,10 +8428,10 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="C250" s="250">
         <v>7.8910999999999995E-2</v>
@@ -8442,10 +8442,10 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="C251" s="251">
         <v>7.8849000000000002E-2</v>
@@ -8456,10 +8456,10 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="C252" s="252">
         <v>7.7353000000000005E-2</v>
@@ -8470,10 +8470,10 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="C253" s="253">
         <v>7.6966999999999994E-2</v>
@@ -8484,10 +8484,10 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="C254" s="254">
         <v>7.6712000000000002E-2</v>
@@ -8498,10 +8498,10 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="C255" s="255">
         <v>7.6692999999999997E-2</v>
@@ -8512,10 +8512,10 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="C256" s="256">
         <v>7.6555999999999999E-2</v>
@@ -8526,10 +8526,10 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="C257" s="257">
         <v>7.6545000000000002E-2</v>
@@ -8540,10 +8540,10 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="C258" s="258">
         <v>7.6244999999999993E-2</v>
@@ -8554,10 +8554,10 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="C259" s="259">
         <v>7.5728000000000004E-2</v>
@@ -8568,10 +8568,10 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="C260" s="260">
         <v>7.4957999999999997E-2</v>
@@ -8582,10 +8582,10 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="C261" s="261">
         <v>7.4520000000000003E-2</v>
@@ -8596,10 +8596,10 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="C262" s="262">
         <v>7.4517E-2</v>
@@ -8610,10 +8610,10 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="C263" s="263">
         <v>7.4203000000000005E-2</v>
@@ -8624,10 +8624,10 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="C264" s="264">
         <v>7.3830999999999994E-2</v>
@@ -8638,10 +8638,10 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="C265" s="265">
         <v>7.3693999999999996E-2</v>
@@ -8652,10 +8652,10 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="C266" s="266">
         <v>7.3452000000000003E-2</v>
@@ -8666,10 +8666,10 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="C267" s="267">
         <v>7.2013999999999995E-2</v>
@@ -8680,10 +8680,10 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="C268" s="268">
         <v>7.1582000000000007E-2</v>
@@ -8694,10 +8694,10 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="C269" s="269">
         <v>7.1194999999999994E-2</v>
@@ -8708,10 +8708,10 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="C270" s="270">
         <v>7.0251999999999995E-2</v>
@@ -8722,10 +8722,10 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>543</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>544</v>
       </c>
       <c r="C271" s="271">
         <v>6.9636000000000003E-2</v>
@@ -8736,10 +8736,10 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="C272" s="272">
         <v>6.9584999999999994E-2</v>
@@ -8750,10 +8750,10 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="C273" s="273">
         <v>6.9135000000000002E-2</v>
@@ -8764,10 +8764,10 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="C274" s="274">
         <v>6.9036E-2</v>
@@ -8778,10 +8778,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="C275" s="275">
         <v>6.7610000000000003E-2</v>
@@ -8792,10 +8792,10 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="C276" s="276">
         <v>6.7405000000000007E-2</v>
@@ -8806,10 +8806,10 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="C277" s="277">
         <v>6.6989999999999994E-2</v>
@@ -8820,10 +8820,10 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="C278" s="278">
         <v>6.6715999999999998E-2</v>
@@ -8834,10 +8834,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="C279" s="279">
         <v>6.6257999999999997E-2</v>
@@ -8848,10 +8848,10 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="C280" s="280">
         <v>6.5507999999999997E-2</v>
@@ -8862,10 +8862,10 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="C281" s="281">
         <v>6.4249000000000001E-2</v>
@@ -8876,10 +8876,10 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="C282" s="282">
         <v>6.4231999999999997E-2</v>
@@ -8890,10 +8890,10 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="C283" s="283">
         <v>6.3530000000000003E-2</v>
@@ -8904,10 +8904,10 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="C284" s="284">
         <v>6.3315999999999997E-2</v>
@@ -8918,10 +8918,10 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="C285" s="285">
         <v>6.3218999999999997E-2</v>
@@ -8932,10 +8932,10 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="C286" s="286">
         <v>6.3037999999999997E-2</v>
@@ -8946,10 +8946,10 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="C287" s="287">
         <v>6.2821000000000002E-2</v>
@@ -8960,10 +8960,10 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="C288" s="288">
         <v>6.2539999999999998E-2</v>
@@ -8974,10 +8974,10 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>580</v>
       </c>
       <c r="C289" s="289">
         <v>6.1950999999999999E-2</v>
@@ -8988,10 +8988,10 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="C290" s="290">
         <v>6.1863000000000001E-2</v>
@@ -9002,10 +9002,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="C291" s="291">
         <v>6.1711000000000002E-2</v>
@@ -9016,10 +9016,10 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="C292" s="292">
         <v>6.1638999999999999E-2</v>
@@ -9030,10 +9030,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="C293" s="293">
         <v>6.1054999999999998E-2</v>
@@ -9044,10 +9044,10 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="C294" s="294">
         <v>6.0373000000000003E-2</v>
@@ -9058,10 +9058,10 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="C295" s="295">
         <v>6.0302000000000001E-2</v>
@@ -9072,10 +9072,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="C296" s="296">
         <v>5.9895999999999998E-2</v>
@@ -9086,10 +9086,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="C297" s="297">
         <v>5.9825000000000003E-2</v>
@@ -9100,10 +9100,10 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="C298" s="298">
         <v>5.9791999999999998E-2</v>
@@ -9114,10 +9114,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="C299" s="299">
         <v>5.9228000000000003E-2</v>
@@ -9128,10 +9128,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="C300" s="300">
         <v>5.9122000000000001E-2</v>
@@ -9142,10 +9142,10 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="C301" s="301">
         <v>5.9109000000000002E-2</v>
@@ -9156,10 +9156,10 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="C302" s="302">
         <v>5.7986999999999997E-2</v>
@@ -9170,10 +9170,10 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="C303" s="303">
         <v>5.7578999999999998E-2</v>
@@ -9184,10 +9184,10 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>610</v>
       </c>
       <c r="C304" s="304">
         <v>5.7516999999999999E-2</v>
@@ -9198,10 +9198,10 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="C305" s="305">
         <v>5.7339000000000001E-2</v>
@@ -9212,10 +9212,10 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="C306" s="306">
         <v>5.6584000000000002E-2</v>
@@ -9226,10 +9226,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="C307" s="307">
         <v>5.6528000000000002E-2</v>
@@ -9240,10 +9240,10 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="C308" s="308">
         <v>5.5565000000000003E-2</v>
@@ -9254,10 +9254,10 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="C309" s="309">
         <v>5.4297999999999999E-2</v>
@@ -9268,10 +9268,10 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>622</v>
       </c>
       <c r="C310" s="310">
         <v>5.4200999999999999E-2</v>
@@ -9282,10 +9282,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B311" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="C311" s="311">
         <v>5.4163999999999997E-2</v>
@@ -9296,10 +9296,10 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="C312" s="312">
         <v>5.4077E-2</v>
@@ -9310,10 +9310,10 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>628</v>
       </c>
       <c r="C313" s="313">
         <v>5.4043000000000001E-2</v>
@@ -9324,10 +9324,10 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="C314" s="314">
         <v>5.3893000000000003E-2</v>
@@ -9338,10 +9338,10 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="C315" s="315">
         <v>5.3671000000000003E-2</v>
@@ -9352,10 +9352,10 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="C316" s="316">
         <v>5.3519999999999998E-2</v>
@@ -9366,10 +9366,10 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="C317" s="317">
         <v>5.33E-2</v>
@@ -9380,10 +9380,10 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>638</v>
       </c>
       <c r="C318" s="318">
         <v>5.3293E-2</v>
@@ -9394,10 +9394,10 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B319" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>640</v>
       </c>
       <c r="C319" s="319">
         <v>5.3179999999999998E-2</v>
@@ -9408,10 +9408,10 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>642</v>
       </c>
       <c r="C320" s="320">
         <v>5.2506999999999998E-2</v>
@@ -9422,10 +9422,10 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="C321" s="321">
         <v>5.2366999999999997E-2</v>
@@ -9436,10 +9436,10 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="C322" s="322">
         <v>5.2197E-2</v>
@@ -9450,10 +9450,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="C323" s="323">
         <v>5.1701999999999998E-2</v>
@@ -9464,10 +9464,10 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="C324" s="324">
         <v>5.1428000000000001E-2</v>
@@ -9478,10 +9478,10 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="C325" s="325">
         <v>5.1348999999999999E-2</v>
@@ -9492,10 +9492,10 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B326" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="C326" s="326">
         <v>5.0971000000000002E-2</v>
@@ -9506,10 +9506,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B327" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="C327" s="327">
         <v>5.0846000000000002E-2</v>
@@ -9520,10 +9520,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B328" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="C328" s="328">
         <v>5.0841999999999998E-2</v>
@@ -9534,10 +9534,10 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B329" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="C329" s="329">
         <v>5.0522999999999998E-2</v>
@@ -9548,10 +9548,10 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B330" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="C330" s="330">
         <v>5.0424999999999998E-2</v>
@@ -9562,10 +9562,10 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="C331" s="331">
         <v>5.0344E-2</v>
@@ -9576,10 +9576,10 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="C332" s="332">
         <v>4.9910000000000003E-2</v>
@@ -9590,10 +9590,10 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="C333" s="333">
         <v>4.9671E-2</v>
@@ -9604,10 +9604,10 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="C334" s="334">
         <v>4.8821999999999997E-2</v>
@@ -9618,10 +9618,10 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="C335" s="335">
         <v>4.8536000000000003E-2</v>
@@ -9632,10 +9632,10 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B336" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="C336" s="336">
         <v>4.8469999999999999E-2</v>
@@ -9646,10 +9646,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="C337" s="337">
         <v>4.8288999999999999E-2</v>
@@ -9660,10 +9660,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B338" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="B338" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="C338" s="338">
         <v>4.8076000000000001E-2</v>
@@ -9674,10 +9674,10 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="B339" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="C339" s="339">
         <v>4.7703000000000002E-2</v>
@@ -9688,10 +9688,10 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="C340" s="340">
         <v>4.7349000000000002E-2</v>
@@ -9702,10 +9702,10 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="C341" s="341">
         <v>4.7314000000000002E-2</v>
@@ -9716,10 +9716,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B342" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="B342" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="C342" s="342">
         <v>4.7023000000000002E-2</v>
@@ -9730,10 +9730,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>687</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>688</v>
       </c>
       <c r="C343" s="343">
         <v>4.6984999999999999E-2</v>
@@ -9744,10 +9744,10 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B344" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="C344" s="344">
         <v>4.6847E-2</v>
@@ -9758,10 +9758,10 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>691</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="C345" s="345">
         <v>4.684E-2</v>
@@ -9772,10 +9772,10 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B346" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="B346" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="C346" s="346">
         <v>4.5950999999999999E-2</v>
@@ -9786,10 +9786,10 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="C347" s="347">
         <v>4.5795000000000002E-2</v>
@@ -9800,10 +9800,10 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="C348" s="348">
         <v>4.5734999999999998E-2</v>
@@ -9814,10 +9814,10 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="C349" s="349">
         <v>4.5238E-2</v>
@@ -9828,10 +9828,10 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="C350" s="350">
         <v>4.514E-2</v>
@@ -9842,10 +9842,10 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="C351" s="351">
         <v>4.5122000000000002E-2</v>
@@ -9856,10 +9856,10 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="C352" s="352">
         <v>4.5029E-2</v>
@@ -9870,10 +9870,10 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B353" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="C353" s="353">
         <v>4.4762000000000003E-2</v>
@@ -9884,10 +9884,10 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>710</v>
       </c>
       <c r="C354" s="354">
         <v>4.4401999999999997E-2</v>
@@ -9898,10 +9898,10 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>712</v>
       </c>
       <c r="C355" s="355">
         <v>4.4177000000000001E-2</v>
@@ -9912,10 +9912,10 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>713</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>714</v>
       </c>
       <c r="C356" s="356">
         <v>4.3885E-2</v>
@@ -9926,10 +9926,10 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="C357" s="357">
         <v>4.3734000000000002E-2</v>
@@ -9940,10 +9940,10 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>718</v>
       </c>
       <c r="C358" s="358">
         <v>4.3555999999999997E-2</v>
@@ -9954,10 +9954,10 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="C359" s="359">
         <v>4.3379000000000001E-2</v>
@@ -9968,10 +9968,10 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>722</v>
       </c>
       <c r="C360" s="360">
         <v>4.3163E-2</v>
@@ -9982,10 +9982,10 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B361" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="B361" s="1" t="s">
-        <v>724</v>
       </c>
       <c r="C361" s="361">
         <v>4.3161999999999999E-2</v>
@@ -9996,10 +9996,10 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B362" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="C362" s="362">
         <v>4.3042999999999998E-2</v>
@@ -10010,10 +10010,10 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="C363" s="363">
         <v>4.2994999999999998E-2</v>
@@ -10024,10 +10024,10 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="C364" s="364">
         <v>4.2902000000000003E-2</v>
@@ -10038,10 +10038,10 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="C365" s="365">
         <v>4.2814999999999999E-2</v>
@@ -10052,10 +10052,10 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B366" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="B366" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="C366" s="366">
         <v>4.2002999999999999E-2</v>
@@ -10066,10 +10066,10 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B367" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="B367" s="1" t="s">
-        <v>736</v>
       </c>
       <c r="C367" s="367">
         <v>4.1924000000000003E-2</v>
@@ -10080,10 +10080,10 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>738</v>
       </c>
       <c r="C368" s="368">
         <v>4.1917000000000003E-2</v>
@@ -10094,10 +10094,10 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="C369" s="369">
         <v>4.1846000000000001E-2</v>
@@ -10108,10 +10108,10 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>741</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>742</v>
       </c>
       <c r="C370" s="370">
         <v>4.1778999999999997E-2</v>
@@ -10122,10 +10122,10 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="C371" s="371">
         <v>4.1709000000000003E-2</v>
@@ -10136,10 +10136,10 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="C372" s="372">
         <v>4.1463E-2</v>
@@ -10150,10 +10150,10 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B373" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="B373" s="1" t="s">
-        <v>748</v>
       </c>
       <c r="C373" s="373">
         <v>4.1356999999999998E-2</v>
@@ -10164,10 +10164,10 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="C374" s="374">
         <v>4.1354000000000002E-2</v>
@@ -10178,10 +10178,10 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B375" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="B375" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="C375" s="375">
         <v>4.1075E-2</v>
@@ -10192,10 +10192,10 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B376" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="B376" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="C376" s="376">
         <v>4.1029000000000003E-2</v>
@@ -10206,10 +10206,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B377" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="C377" s="377">
         <v>4.0793999999999997E-2</v>
@@ -10220,10 +10220,10 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B378" s="1" t="s">
         <v>757</v>
-      </c>
-      <c r="B378" s="1" t="s">
-        <v>758</v>
       </c>
       <c r="C378" s="378">
         <v>4.0696999999999997E-2</v>
@@ -10234,10 +10234,10 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B379" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>760</v>
       </c>
       <c r="C379" s="379">
         <v>3.9761999999999999E-2</v>
@@ -10248,10 +10248,10 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="B380" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="B380" s="1" t="s">
-        <v>762</v>
       </c>
       <c r="C380" s="380">
         <v>3.9694E-2</v>
@@ -10262,10 +10262,10 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B381" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="C381" s="381">
         <v>3.9683999999999997E-2</v>
@@ -10276,10 +10276,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="B382" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="C382" s="382">
         <v>3.9622999999999998E-2</v>
@@ -10290,10 +10290,10 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B383" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="B383" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="C383" s="383">
         <v>3.9261999999999998E-2</v>
@@ -10304,10 +10304,10 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="B384" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="C384" s="384">
         <v>3.9231000000000002E-2</v>
@@ -10318,10 +10318,10 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B385" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="B385" s="1" t="s">
-        <v>772</v>
       </c>
       <c r="C385" s="385">
         <v>3.9189000000000002E-2</v>
@@ -10332,10 +10332,10 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="C386" s="386">
         <v>3.8785E-2</v>
@@ -10346,10 +10346,10 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B387" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="B387" s="1" t="s">
-        <v>776</v>
       </c>
       <c r="C387" s="387">
         <v>3.8781000000000003E-2</v>
@@ -10360,10 +10360,10 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B388" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="C388" s="388">
         <v>3.8755999999999999E-2</v>
@@ -10374,10 +10374,10 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B389" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>780</v>
       </c>
       <c r="C389" s="389">
         <v>3.8473E-2</v>
@@ -10388,10 +10388,10 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B390" s="1" t="s">
         <v>781</v>
-      </c>
-      <c r="B390" s="1" t="s">
-        <v>782</v>
       </c>
       <c r="C390" s="390">
         <v>3.8275000000000003E-2</v>
@@ -10402,10 +10402,10 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="C391" s="391">
         <v>3.8273000000000001E-2</v>
@@ -10416,10 +10416,10 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B392" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="B392" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="C392" s="392">
         <v>3.8247000000000003E-2</v>
@@ -10430,10 +10430,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B393" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="B393" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="C393" s="393">
         <v>3.7509000000000001E-2</v>
@@ -10444,10 +10444,10 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B394" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="B394" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="C394" s="394">
         <v>3.7457999999999998E-2</v>
@@ -10458,10 +10458,10 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B395" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>792</v>
       </c>
       <c r="C395" s="395">
         <v>3.7440000000000001E-2</v>
@@ -10472,10 +10472,10 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B396" s="1" t="s">
         <v>793</v>
-      </c>
-      <c r="B396" s="1" t="s">
-        <v>794</v>
       </c>
       <c r="C396" s="396">
         <v>3.7225000000000001E-2</v>
@@ -10486,10 +10486,10 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B397" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="C397" s="397">
         <v>3.7104999999999999E-2</v>
@@ -10500,10 +10500,10 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B398" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="B398" s="1" t="s">
-        <v>798</v>
       </c>
       <c r="C398" s="398">
         <v>3.6408999999999997E-2</v>
@@ -10514,10 +10514,10 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B399" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="B399" s="1" t="s">
-        <v>800</v>
       </c>
       <c r="C399" s="399">
         <v>3.6206000000000002E-2</v>
@@ -10528,10 +10528,10 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B400" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="B400" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="C400" s="400">
         <v>3.6184000000000001E-2</v>
@@ -10542,10 +10542,10 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B401" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="C401" s="401">
         <v>3.6026000000000002E-2</v>
@@ -10556,10 +10556,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B402" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="B402" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="C402" s="402">
         <v>3.6021999999999998E-2</v>
@@ -10570,10 +10570,10 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B403" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="B403" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="C403" s="403">
         <v>3.5971999999999997E-2</v>
@@ -10584,10 +10584,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B404" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="B404" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="C404" s="404">
         <v>3.5740000000000001E-2</v>
@@ -10598,10 +10598,10 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="C405" s="405">
         <v>3.5640999999999999E-2</v>
@@ -10612,10 +10612,10 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B406" s="1" t="s">
         <v>813</v>
-      </c>
-      <c r="B406" s="1" t="s">
-        <v>814</v>
       </c>
       <c r="C406" s="406">
         <v>3.5607E-2</v>
@@ -10626,10 +10626,10 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B407" s="1" t="s">
         <v>815</v>
-      </c>
-      <c r="B407" s="1" t="s">
-        <v>816</v>
       </c>
       <c r="C407" s="407">
         <v>3.5410999999999998E-2</v>
@@ -10640,10 +10640,10 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B408" s="1" t="s">
         <v>817</v>
-      </c>
-      <c r="B408" s="1" t="s">
-        <v>818</v>
       </c>
       <c r="C408" s="408">
         <v>3.5068000000000002E-2</v>
@@ -10654,10 +10654,10 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B409" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="B409" s="1" t="s">
-        <v>820</v>
       </c>
       <c r="C409" s="409">
         <v>3.4786999999999998E-2</v>
@@ -10668,10 +10668,10 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B410" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="B410" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="C410" s="410">
         <v>3.4751999999999998E-2</v>
@@ -10682,10 +10682,10 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B411" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="C411" s="411">
         <v>3.4701999999999997E-2</v>
@@ -10696,10 +10696,10 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B412" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="B412" s="1" t="s">
-        <v>826</v>
       </c>
       <c r="C412" s="412">
         <v>3.4407E-2</v>
@@ -10710,10 +10710,10 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B413" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="B413" s="1" t="s">
-        <v>828</v>
       </c>
       <c r="C413" s="413">
         <v>3.3744999999999997E-2</v>
@@ -10724,10 +10724,10 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B414" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="B414" s="1" t="s">
-        <v>830</v>
       </c>
       <c r="C414" s="414">
         <v>3.3736000000000002E-2</v>
@@ -10738,10 +10738,10 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B415" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="B415" s="1" t="s">
-        <v>832</v>
       </c>
       <c r="C415" s="415">
         <v>3.3003999999999999E-2</v>
@@ -10752,10 +10752,10 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B416" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="B416" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="C416" s="416">
         <v>3.2979000000000001E-2</v>
@@ -10766,10 +10766,10 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B417" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="B417" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="C417" s="417">
         <v>3.2500000000000001E-2</v>
@@ -10780,10 +10780,10 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B418" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="B418" s="1" t="s">
-        <v>838</v>
       </c>
       <c r="C418" s="418">
         <v>3.2287000000000003E-2</v>
@@ -10794,10 +10794,10 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B419" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>840</v>
       </c>
       <c r="C419" s="419">
         <v>3.2242E-2</v>
@@ -10808,10 +10808,10 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B420" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>842</v>
       </c>
       <c r="C420" s="420">
         <v>3.2039999999999999E-2</v>
@@ -10822,10 +10822,10 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B421" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>844</v>
       </c>
       <c r="C421" s="421">
         <v>3.1852999999999999E-2</v>
@@ -10836,10 +10836,10 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B422" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>846</v>
       </c>
       <c r="C422" s="422">
         <v>3.1494000000000001E-2</v>
@@ -10850,10 +10850,10 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B423" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>848</v>
       </c>
       <c r="C423" s="423">
         <v>3.1418000000000001E-2</v>
@@ -10864,10 +10864,10 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B424" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="C424" s="424">
         <v>3.0654000000000001E-2</v>
@@ -10878,10 +10878,10 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B425" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>852</v>
       </c>
       <c r="C425" s="425">
         <v>3.0599999999999999E-2</v>
@@ -10892,10 +10892,10 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B426" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>854</v>
       </c>
       <c r="C426" s="426">
         <v>3.0498999999999998E-2</v>
@@ -10906,10 +10906,10 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B427" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="C427" s="427">
         <v>2.9869E-2</v>
@@ -10920,10 +10920,10 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B428" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="C428" s="428">
         <v>2.9856000000000001E-2</v>
@@ -10934,10 +10934,10 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B429" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>860</v>
       </c>
       <c r="C429" s="429">
         <v>2.9703E-2</v>
@@ -10948,10 +10948,10 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B430" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>862</v>
       </c>
       <c r="C430" s="430">
         <v>2.9603000000000001E-2</v>
@@ -10962,10 +10962,10 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B431" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>864</v>
       </c>
       <c r="C431" s="431">
         <v>2.9297E-2</v>
@@ -10976,10 +10976,10 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B432" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>866</v>
       </c>
       <c r="C432" s="432">
         <v>2.8946E-2</v>
@@ -10990,10 +10990,10 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B433" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="C433" s="433">
         <v>2.8556999999999999E-2</v>
@@ -11004,10 +11004,10 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>870</v>
       </c>
       <c r="C434" s="434">
         <v>2.8483000000000001E-2</v>
@@ -11018,10 +11018,10 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="C435" s="435">
         <v>2.8288000000000001E-2</v>
@@ -11032,10 +11032,10 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>874</v>
       </c>
       <c r="C436" s="436">
         <v>2.8202999999999999E-2</v>
@@ -11046,10 +11046,10 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="C437" s="437">
         <v>2.8042000000000001E-2</v>
@@ -11060,10 +11060,10 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B438" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="C438" s="438">
         <v>2.7854E-2</v>
@@ -11074,10 +11074,10 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>880</v>
       </c>
       <c r="C439" s="439">
         <v>2.7532000000000001E-2</v>
@@ -11088,10 +11088,10 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="C440" s="440">
         <v>2.7411999999999999E-2</v>
@@ -11102,10 +11102,10 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>884</v>
       </c>
       <c r="C441" s="441">
         <v>2.7366999999999999E-2</v>
@@ -11116,10 +11116,10 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>885</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>886</v>
       </c>
       <c r="C442" s="442">
         <v>2.7317999999999999E-2</v>
@@ -11130,10 +11130,10 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="B443" s="1" t="s">
         <v>887</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>888</v>
       </c>
       <c r="C443" s="443">
         <v>2.7182999999999999E-2</v>
@@ -11144,10 +11144,10 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B444" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>890</v>
       </c>
       <c r="C444" s="444">
         <v>2.7175000000000001E-2</v>
@@ -11158,10 +11158,10 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B445" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="B445" s="1" t="s">
-        <v>892</v>
       </c>
       <c r="C445" s="445">
         <v>2.7130999999999999E-2</v>
@@ -11172,10 +11172,10 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B446" s="1" t="s">
         <v>893</v>
-      </c>
-      <c r="B446" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="C446" s="446">
         <v>2.7094E-2</v>
@@ -11186,10 +11186,10 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B447" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="B447" s="1" t="s">
-        <v>896</v>
       </c>
       <c r="C447" s="447">
         <v>2.7047999999999999E-2</v>
@@ -11200,10 +11200,10 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B448" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="B448" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="C448" s="448">
         <v>2.6905999999999999E-2</v>
@@ -11214,10 +11214,10 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B449" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="B449" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="C449" s="449">
         <v>2.6818000000000002E-2</v>
@@ -11228,10 +11228,10 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B450" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="B450" s="1" t="s">
-        <v>902</v>
       </c>
       <c r="C450" s="450">
         <v>2.6388000000000002E-2</v>
@@ -11242,10 +11242,10 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B451" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="B451" s="1" t="s">
-        <v>904</v>
       </c>
       <c r="C451" s="451">
         <v>2.6280000000000001E-2</v>
@@ -11256,10 +11256,10 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B452" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="B452" s="1" t="s">
-        <v>906</v>
       </c>
       <c r="C452" s="452">
         <v>2.5888000000000001E-2</v>
@@ -11270,10 +11270,10 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B453" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>908</v>
       </c>
       <c r="C453" s="453">
         <v>2.5873E-2</v>
@@ -11284,10 +11284,10 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B454" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="B454" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="C454" s="454">
         <v>2.5863000000000001E-2</v>
@@ -11298,10 +11298,10 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B455" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="B455" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="C455" s="455">
         <v>2.5463E-2</v>
@@ -11312,10 +11312,10 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B456" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="B456" s="1" t="s">
-        <v>914</v>
       </c>
       <c r="C456" s="456">
         <v>2.4761999999999999E-2</v>
@@ -11326,10 +11326,10 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B457" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="B457" s="1" t="s">
-        <v>916</v>
       </c>
       <c r="C457" s="457">
         <v>2.4497000000000001E-2</v>
@@ -11340,10 +11340,10 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B458" s="1" t="s">
         <v>917</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>918</v>
       </c>
       <c r="C458" s="458">
         <v>2.4053000000000001E-2</v>
@@ -11354,10 +11354,10 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B459" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>920</v>
       </c>
       <c r="C459" s="459">
         <v>2.3987000000000001E-2</v>
@@ -11368,10 +11368,10 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="B460" s="1" t="s">
         <v>921</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>922</v>
       </c>
       <c r="C460" s="460">
         <v>2.3789000000000001E-2</v>
@@ -11382,10 +11382,10 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B461" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>924</v>
       </c>
       <c r="C461" s="461">
         <v>2.3747000000000001E-2</v>
@@ -11396,10 +11396,10 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B462" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="C462" s="462">
         <v>2.3386000000000001E-2</v>
@@ -11410,10 +11410,10 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B463" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="C463" s="463">
         <v>2.3333E-2</v>
@@ -11424,10 +11424,10 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B464" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="C464" s="464">
         <v>2.3328999999999999E-2</v>
@@ -11438,10 +11438,10 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="B465" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>932</v>
       </c>
       <c r="C465" s="465">
         <v>2.2963000000000001E-2</v>
@@ -11452,10 +11452,10 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B466" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>934</v>
       </c>
       <c r="C466" s="466">
         <v>2.2934E-2</v>
@@ -11466,10 +11466,10 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B467" s="1" t="s">
         <v>935</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>936</v>
       </c>
       <c r="C467" s="467">
         <v>2.2467999999999998E-2</v>
@@ -11480,10 +11480,10 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="B468" s="1" t="s">
         <v>937</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>938</v>
       </c>
       <c r="C468" s="468">
         <v>2.2466E-2</v>
@@ -11494,10 +11494,10 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B469" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>940</v>
       </c>
       <c r="C469" s="469">
         <v>2.1864000000000001E-2</v>
@@ -11508,10 +11508,10 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B470" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>942</v>
       </c>
       <c r="C470" s="470">
         <v>2.1787000000000001E-2</v>
@@ -11522,10 +11522,10 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B471" s="1" t="s">
         <v>943</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>944</v>
       </c>
       <c r="C471" s="471">
         <v>2.1770999999999999E-2</v>
@@ -11536,10 +11536,10 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B472" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>946</v>
       </c>
       <c r="C472" s="472">
         <v>2.1529E-2</v>
@@ -11550,10 +11550,10 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B473" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>948</v>
       </c>
       <c r="C473" s="473">
         <v>2.1527999999999999E-2</v>
@@ -11564,10 +11564,10 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B474" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>950</v>
       </c>
       <c r="C474" s="474">
         <v>2.1444999999999999E-2</v>
@@ -11578,10 +11578,10 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="B475" s="1" t="s">
         <v>951</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>952</v>
       </c>
       <c r="C475" s="475">
         <v>2.1283E-2</v>
@@ -11592,10 +11592,10 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B476" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>954</v>
       </c>
       <c r="C476" s="476">
         <v>2.1092E-2</v>
@@ -11606,10 +11606,10 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B477" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>956</v>
       </c>
       <c r="C477" s="477">
         <v>2.0580999999999999E-2</v>
@@ -11620,10 +11620,10 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B478" s="1" t="s">
         <v>957</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>958</v>
       </c>
       <c r="C478" s="478">
         <v>2.0524000000000001E-2</v>
@@ -11634,10 +11634,10 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B479" s="1" t="s">
         <v>959</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>960</v>
       </c>
       <c r="C479" s="479">
         <v>2.0306999999999999E-2</v>
@@ -11648,10 +11648,10 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>961</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>962</v>
       </c>
       <c r="C480" s="480">
         <v>2.0150000000000001E-2</v>
@@ -11662,10 +11662,10 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B481" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="C481" s="481">
         <v>2.0108000000000001E-2</v>
@@ -11676,10 +11676,10 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B482" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>966</v>
       </c>
       <c r="C482" s="482">
         <v>1.9656E-2</v>
@@ -11690,10 +11690,10 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B483" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>968</v>
       </c>
       <c r="C483" s="483">
         <v>1.9542E-2</v>
@@ -11704,10 +11704,10 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B484" s="1" t="s">
         <v>969</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>970</v>
       </c>
       <c r="C484" s="484">
         <v>1.9321999999999999E-2</v>
@@ -11718,10 +11718,10 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B485" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>972</v>
       </c>
       <c r="C485" s="485">
         <v>1.907E-2</v>
@@ -11732,10 +11732,10 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>973</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>974</v>
       </c>
       <c r="C486" s="486">
         <v>1.8971999999999999E-2</v>
@@ -11746,10 +11746,10 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B487" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>976</v>
       </c>
       <c r="C487" s="487">
         <v>1.8939000000000001E-2</v>
@@ -11760,10 +11760,10 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B488" s="1" t="s">
         <v>977</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>978</v>
       </c>
       <c r="C488" s="488">
         <v>1.8452E-2</v>
@@ -11774,10 +11774,10 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B489" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="C489" s="489">
         <v>1.8208999999999999E-2</v>
@@ -11788,10 +11788,10 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B490" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>982</v>
       </c>
       <c r="C490" s="490">
         <v>1.7868999999999999E-2</v>
@@ -11802,10 +11802,10 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B491" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>984</v>
       </c>
       <c r="C491" s="491">
         <v>1.7749000000000001E-2</v>
@@ -11816,10 +11816,10 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B492" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>986</v>
       </c>
       <c r="C492" s="492">
         <v>1.762E-2</v>
@@ -11830,10 +11830,10 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B493" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="C493" s="493">
         <v>1.7141E-2</v>
@@ -11844,10 +11844,10 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B494" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="C494" s="494">
         <v>1.6892000000000001E-2</v>
@@ -11858,10 +11858,10 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B495" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>992</v>
       </c>
       <c r="C495" s="495">
         <v>1.6702000000000002E-2</v>
@@ -11872,10 +11872,10 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B496" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>994</v>
       </c>
       <c r="C496" s="496">
         <v>1.6168999999999999E-2</v>
@@ -11886,10 +11886,10 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B497" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="C497" s="497">
         <v>1.5630999999999999E-2</v>
@@ -11900,10 +11900,10 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B498" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>998</v>
       </c>
       <c r="C498" s="498">
         <v>1.5435000000000001E-2</v>
@@ -11914,10 +11914,10 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B499" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>1000</v>
       </c>
       <c r="C499" s="499">
         <v>1.5257E-2</v>
@@ -11928,10 +11928,10 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B500" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>1002</v>
       </c>
       <c r="C500" s="500">
         <v>1.3875999999999999E-2</v>
@@ -11942,10 +11942,10 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B501" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>1004</v>
       </c>
       <c r="C501" s="501">
         <v>1.357E-2</v>
@@ -11956,10 +11956,10 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B502" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>1006</v>
       </c>
       <c r="C502" s="502">
         <v>1.3354E-2</v>
@@ -11970,10 +11970,10 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B503" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="C503" s="503">
         <v>9.1129999999999996E-3</v>
@@ -11984,10 +11984,10 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B504" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>1010</v>
       </c>
       <c r="C504" s="504">
         <v>6.8050000000000003E-3</v>
